--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/자동오늘날짜(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/자동오늘날짜(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_출판사\길벗\직장인엑셀_2018\부록CD\Chapter01\Section01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB90A9C7-DF52-4172-BC56-64724B2167AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157F9D2-8217-F641-B57F-399A4830E9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDEBB7A9-E0F3-4C8B-A898-C1BE62F2BA88}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EDEBB7A9-E0F3-4C8B-A898-C1BE62F2BA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -139,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,11 +399,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -404,9 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,9 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,9 +431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -444,6 +446,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,62 +767,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E114B21-7356-4B39-963B-8ABC96CF37DD}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7" ht="25" thickTop="1" thickBot="1">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="18" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" ht="19" thickTop="1" thickBot="1"/>
+    <row r="4" spans="2:7" ht="18" thickBot="1">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="1">
+        <v>44950</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="16">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15" t="s">
+    <row r="5" spans="2:7" ht="18" thickBot="1"/>
+    <row r="6" spans="2:7" ht="19" thickTop="1" thickBot="1">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="18" thickTop="1">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -827,177 +836,177 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>$C$4+E7</f>
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F16" si="0">$C$4+E8</f>
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F16" si="0">$C$4+E8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="7">
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="9">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="18" thickBot="1">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="17" ht="18" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
